--- a/DSY1104 Evaluación Parcial 1 - Anexo 2 Planilla de Requerimientos.xlsx
+++ b/DSY1104 Evaluación Parcial 1 - Anexo 2 Planilla de Requerimientos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\papit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7584DC9-E348-4F9B-AEA0-0B4E40748D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8DB8B-BD29-4385-8DBE-923A7268064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1065" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,15 +1024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1e7bc46-bed0-459f-9452-a76b1c5b695e">
@@ -1040,6 +1031,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,19 +1254,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370A914A-1DD7-4F78-8671-F61C286C2CC1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14168F1D-C031-4047-A789-A93363341739}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14168F1D-C031-4047-A789-A93363341739}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370A914A-1DD7-4F78-8671-F61C286C2CC1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DSY1104 Evaluación Parcial 1 - Anexo 2 Planilla de Requerimientos.xlsx
+++ b/DSY1104 Evaluación Parcial 1 - Anexo 2 Planilla de Requerimientos.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vina\Desktop\Proyecto-Fullstack-II-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8DB8B-BD29-4385-8DBE-923A7268064B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF1A7C-ECFA-49FF-8068-7D455FFFE01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1065" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
     <sheet name="Requerimiento Inicial" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>[Nombre del Requerimiento]</t>
   </si>
@@ -193,30 +198,62 @@
 necesario o que no quede más en venta</t>
   </si>
   <si>
-    <t>Autentificar  Usuario al iniciar Sesión</t>
-  </si>
-  <si>
-    <t>Todos los Actores que interactúen en el Sistema</t>
-  </si>
-  <si>
-    <t>El sistema debe autenticar la identidad de un Usuario que inicie sesión con su perfil para interactuar con el Sistema según su perfil. 
-Autenticará por Rut  y Clave Alfanumérica.</t>
-  </si>
-  <si>
-    <t>Registrar Usuario al Sistema</t>
-  </si>
-  <si>
     <t>Usuario Administrador</t>
   </si>
   <si>
-    <t>El Administrador debe crear por medio de una Interfaz del sistema una cuenta de Usuario para habilitar a sus Ejecutivos para utilizar el sistema.</t>
+    <t>Usuario Cliente o
+Administador</t>
+  </si>
+  <si>
+    <t>Portabilidad</t>
+  </si>
+  <si>
+    <t>Mantenibilidad</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>Fiabilidad</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Usuario Cliente</t>
+  </si>
+  <si>
+    <t>El 90% de las páginas deben cargar en menos de 2 segundos</t>
+  </si>
+  <si>
+    <t>Las cookies de sesión caducan en 1 hora y
+no se almacenan datos sensibles</t>
+  </si>
+  <si>
+    <t>El carrito debe mantenerse estable mientras dure la sesión</t>
+  </si>
+  <si>
+    <t>El sistema debe estar disponible al menos el 95% del tiempo</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>El código debe estar separado en HTML, CSS y JS externos</t>
+  </si>
+  <si>
+    <t>El sistema debe funcionar en navegadores modernos (Chrome,
+Firefox, Edge) y en dispositivos móviles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +288,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -327,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -357,6 +400,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +821,9 @@
       <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
@@ -795,7 +844,9 @@
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
@@ -816,7 +867,9 @@
       <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>43</v>
       </c>
@@ -837,7 +890,9 @@
       <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
@@ -858,7 +913,9 @@
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
@@ -879,7 +936,9 @@
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>53</v>
       </c>
@@ -900,7 +959,9 @@
       <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
@@ -912,137 +973,169 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1e7bc46-bed0-459f-9452-a76b1c5b695e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005395107FFD641345A10C8A5ACACB9D20" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ce7786e0ad11988b1588e06b80e33958">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e1e7bc46-bed0-459f-9452-a76b1c5b695e" xmlns:ns3="bb8cf7e1-610f-40a0-8f00-126b9d139fde" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99ef8fa6ee73c11c731191fdf3d87e67" ns2:_="" ns3:_="">
     <xsd:import namespace="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
@@ -1253,25 +1346,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14168F1D-C031-4047-A789-A93363341739}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370A914A-1DD7-4F78-8671-F61C286C2CC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1e7bc46-bed0-459f-9452-a76b1c5b695e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4FA5F9-E1BF-40AC-BEF4-FE15B10C9F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1288,4 +1382,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370A914A-1DD7-4F78-8671-F61C286C2CC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14168F1D-C031-4047-A789-A93363341739}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>